--- a/contaduria.xlsx
+++ b/contaduria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandon/MyProjects/compareExcelEbcRuby/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182CB5B7-CC9E-CD4C-97A8-8D4DBFE18E37}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36FF97B-CD16-DF41-8726-94AF4777CAC2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="136">
   <si>
     <t>CLAVE</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>4° Semestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAU 27401	</t>
   </si>
   <si>
     <t>Sistema de control interno</t>
@@ -602,124 +599,10 @@
     <t>8° Semestre</t>
   </si>
   <si>
-    <t>CCE27402</t>
-  </si>
-  <si>
-    <t>CCE27403</t>
-  </si>
-  <si>
-    <t>CCE27404</t>
-  </si>
-  <si>
-    <t>CCE27405</t>
-  </si>
-  <si>
-    <t>CCE27406</t>
-  </si>
-  <si>
-    <t>CCN27402</t>
-  </si>
-  <si>
-    <t>CCN27403</t>
-  </si>
-  <si>
-    <t>CCN27404</t>
-  </si>
-  <si>
-    <t>CCN27405</t>
-  </si>
-  <si>
-    <t>CCN27406</t>
-  </si>
-  <si>
-    <t>CAF27402</t>
-  </si>
-  <si>
-    <t>CAF27403</t>
-  </si>
-  <si>
-    <t>CAF27404</t>
-  </si>
-  <si>
-    <t>CAF27405</t>
-  </si>
-  <si>
-    <t>CAF27406</t>
-  </si>
-  <si>
-    <t>CFS27402</t>
-  </si>
-  <si>
-    <t>CFS27403</t>
-  </si>
-  <si>
-    <t>CFS27404</t>
-  </si>
-  <si>
-    <t>CFS27405</t>
-  </si>
-  <si>
-    <t>CFS27406</t>
-  </si>
-  <si>
-    <t>CCE27604</t>
-  </si>
-  <si>
-    <t>CCE27605</t>
-  </si>
-  <si>
-    <t>CCE27606</t>
-  </si>
-  <si>
-    <t>CCE27607</t>
-  </si>
-  <si>
-    <t>CCE27608</t>
-  </si>
-  <si>
-    <t>CCN27604</t>
-  </si>
-  <si>
-    <t>CCN27605</t>
-  </si>
-  <si>
-    <t>CCN27606</t>
-  </si>
-  <si>
-    <t>CCN27607</t>
-  </si>
-  <si>
-    <t>CCN27608</t>
-  </si>
-  <si>
-    <t>CAF27604</t>
-  </si>
-  <si>
-    <t>CAF27605</t>
-  </si>
-  <si>
-    <t>CAF27606</t>
-  </si>
-  <si>
-    <t>CAF27607</t>
-  </si>
-  <si>
-    <t>CAF27608</t>
-  </si>
-  <si>
-    <t>CFS27604</t>
-  </si>
-  <si>
-    <t>CFS27605</t>
-  </si>
-  <si>
     <t>CFS27606</t>
   </si>
   <si>
-    <t>CFS27607</t>
-  </si>
-  <si>
-    <t>CFS27608</t>
+    <t xml:space="preserve">CAU27401	</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1084,7 @@
   <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:A66"/>
+      <selection activeCell="A79" sqref="A79:A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1236,427 +1119,427 @@
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="61" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="31" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="31" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="46" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="46" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1820,7 +1703,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -1828,343 +1711,343 @@
     </row>
     <row r="61" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="D61" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="76" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="D79" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -2316,7 +2199,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
